--- a/src/test/resources/testdata/HRMS.xlsx
+++ b/src/test/resources/testdata/HRMS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>FirstName</t>
   </si>
@@ -25,76 +25,82 @@
     <t>LastName</t>
   </si>
   <si>
-    <t>Joe</t>
+    <t>Jo</t>
   </si>
   <si>
     <t>J</t>
   </si>
   <si>
-    <t>Doe</t>
-  </si>
-  <si>
-    <t>Jane</t>
-  </si>
-  <si>
-    <t>Christina</t>
+    <t>DoePE</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Doeep</t>
+  </si>
+  <si>
+    <t>ChristinaS</t>
   </si>
   <si>
     <t>K</t>
   </si>
   <si>
-    <t>Aquilera</t>
-  </si>
-  <si>
-    <t>Mario</t>
+    <t>Aquiler</t>
+  </si>
+  <si>
+    <t>Mariposo</t>
   </si>
   <si>
     <t>M</t>
   </si>
   <si>
-    <t>Miracle</t>
-  </si>
-  <si>
-    <t>Whitney</t>
+    <t>Miracl</t>
+  </si>
+  <si>
+    <t>Whitne</t>
   </si>
   <si>
     <t>W</t>
   </si>
   <si>
-    <t>Houston</t>
-  </si>
-  <si>
-    <t>Jessica</t>
-  </si>
-  <si>
-    <t>Alba</t>
-  </si>
-  <si>
-    <t>Simpson</t>
-  </si>
-  <si>
-    <t>Jessie</t>
+    <t>Housto</t>
+  </si>
+  <si>
+    <t>Jessiy</t>
+  </si>
+  <si>
+    <t>Alb</t>
+  </si>
+  <si>
+    <t>Jess</t>
+  </si>
+  <si>
+    <t>Simpso</t>
+  </si>
+  <si>
+    <t>Jeremy</t>
   </si>
   <si>
     <t>R</t>
   </si>
   <si>
-    <t>Reyes</t>
-  </si>
-  <si>
-    <t>Ricky</t>
-  </si>
-  <si>
-    <t>Martin</t>
-  </si>
-  <si>
-    <t>Julio</t>
+    <t>Reyo</t>
+  </si>
+  <si>
+    <t>Rick</t>
+  </si>
+  <si>
+    <t>Mart</t>
+  </si>
+  <si>
+    <t>Juli</t>
   </si>
   <si>
     <t>I</t>
   </si>
   <si>
-    <t>Iglesias</t>
+    <t>Iglesia</t>
   </si>
 </sst>
 </file>
@@ -102,8 +108,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -124,6 +130,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -131,17 +144,17 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -161,19 +174,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -187,6 +201,14 @@
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -205,15 +227,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -229,39 +242,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,181 +282,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,6 +473,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -509,6 +526,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -520,26 +546,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -572,15 +578,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -590,130 +596,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1049,7 +1055,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
@@ -1088,95 +1094,95 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="C10" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testdata/HRMS.xlsx
+++ b/src/test/resources/testdata/HRMS.xlsx
@@ -25,82 +25,82 @@
     <t>LastName</t>
   </si>
   <si>
-    <t>Jo</t>
+    <t>Joweq</t>
   </si>
   <si>
     <t>J</t>
   </si>
   <si>
-    <t>DoePE</t>
-  </si>
-  <si>
-    <t>Jan</t>
-  </si>
-  <si>
-    <t>Doeep</t>
-  </si>
-  <si>
-    <t>ChristinaS</t>
+    <t>DoePEof</t>
+  </si>
+  <si>
+    <t>Janeow</t>
+  </si>
+  <si>
+    <t>Doeeup</t>
+  </si>
+  <si>
+    <t>ChristinaDa</t>
   </si>
   <si>
     <t>K</t>
   </si>
   <si>
-    <t>Aquiler</t>
-  </si>
-  <si>
-    <t>Mariposo</t>
+    <t>Aquileer</t>
+  </si>
+  <si>
+    <t>Mariposid</t>
   </si>
   <si>
     <t>M</t>
   </si>
   <si>
-    <t>Miracl</t>
-  </si>
-  <si>
-    <t>Whitne</t>
+    <t>Miraclo</t>
+  </si>
+  <si>
+    <t>Whitnehf</t>
   </si>
   <si>
     <t>W</t>
   </si>
   <si>
-    <t>Housto</t>
-  </si>
-  <si>
-    <t>Jessiy</t>
-  </si>
-  <si>
-    <t>Alb</t>
-  </si>
-  <si>
-    <t>Jess</t>
-  </si>
-  <si>
-    <t>Simpso</t>
-  </si>
-  <si>
-    <t>Jeremy</t>
+    <t>Hougsto</t>
+  </si>
+  <si>
+    <t>Jessiyed</t>
+  </si>
+  <si>
+    <t>Albo</t>
+  </si>
+  <si>
+    <t>Jessts</t>
+  </si>
+  <si>
+    <t>Simptso</t>
+  </si>
+  <si>
+    <t>Jeremywr</t>
   </si>
   <si>
     <t>R</t>
   </si>
   <si>
-    <t>Reyo</t>
-  </si>
-  <si>
-    <t>Rick</t>
-  </si>
-  <si>
-    <t>Mart</t>
-  </si>
-  <si>
-    <t>Juli</t>
+    <t>Reyop</t>
+  </si>
+  <si>
+    <t>Rickwc</t>
+  </si>
+  <si>
+    <t>Martp</t>
+  </si>
+  <si>
+    <t>Julidf</t>
   </si>
   <si>
     <t>I</t>
   </si>
   <si>
-    <t>Iglesia</t>
+    <t>Iglesiap</t>
   </si>
 </sst>
 </file>
@@ -110,8 +110,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -130,6 +130,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -137,22 +144,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,42 +165,87 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -220,54 +257,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,187 +282,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,11 +478,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -492,6 +490,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,30 +539,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -568,8 +557,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,7 +578,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -596,130 +596,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1055,7 +1055,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
